--- a/MotaCSDL.xlsx
+++ b/MotaCSDL.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6DE1339E-ECCE-4658-8532-1FDC1685C3E8}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{673EB7AA-1144-4BC9-9B7F-F01CE685C146}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="74">
   <si>
     <t>Username</t>
   </si>
@@ -223,12 +217,36 @@
   </si>
   <si>
     <t>nvarchar(60)</t>
+  </si>
+  <si>
+    <t>Mã bàn</t>
+  </si>
+  <si>
+    <t>Tên bàn</t>
+  </si>
+  <si>
+    <t>BookedTable</t>
+  </si>
+  <si>
+    <t>CustomerName</t>
+  </si>
+  <si>
+    <t>CustomerPhone</t>
+  </si>
+  <si>
+    <t>CustomerAddress</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Trạng thái</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -246,7 +264,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -269,19 +287,34 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -342,7 +375,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -394,7 +427,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -588,18 +621,18 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFFC5566-6581-4C7C-82BE-008264351D00}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:M43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="E40" sqref="E40"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="J42" sqref="J42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -613,15 +646,15 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="2"/>
-      <c r="J2" s="2" t="s">
+      <c r="E2" s="3"/>
+      <c r="J2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
     </row>
     <row r="4" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C4" s="1" t="s">
@@ -636,16 +669,16 @@
       <c r="F4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="J4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="K4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="L4" s="3" t="s">
+      <c r="L4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="M4" s="3" t="s">
+      <c r="M4" s="2" t="s">
         <v>12</v>
       </c>
     </row>
@@ -660,16 +693,16 @@
         <v>45</v>
       </c>
       <c r="F5" s="1"/>
-      <c r="J5" s="3" t="s">
+      <c r="J5" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="K5" s="3" t="s">
+      <c r="K5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="L5" s="3" t="s">
+      <c r="L5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M5" s="3"/>
+      <c r="M5" s="2"/>
     </row>
     <row r="6" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C6" s="1" t="s">
@@ -682,16 +715,16 @@
         <v>10</v>
       </c>
       <c r="F6" s="1"/>
-      <c r="J6" s="3" t="s">
+      <c r="J6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="K6" s="3" t="s">
+      <c r="K6" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="L6" s="3" t="s">
+      <c r="L6" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="M6" s="3"/>
+      <c r="M6" s="2"/>
     </row>
     <row r="7" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C7" s="1" t="s">
@@ -704,16 +737,16 @@
         <v>10</v>
       </c>
       <c r="F7" s="1"/>
-      <c r="J7" s="3" t="s">
+      <c r="J7" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="K7" s="3" t="s">
+      <c r="K7" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="L7" s="3" t="s">
+      <c r="L7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M7" s="3"/>
+      <c r="M7" s="2"/>
     </row>
     <row r="8" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C8" s="1" t="s">
@@ -724,14 +757,14 @@
         <v>11</v>
       </c>
       <c r="F8" s="1"/>
-      <c r="J8" s="3" t="s">
+      <c r="J8" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="K8" s="3" t="s">
+      <c r="K8" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
     </row>
     <row r="9" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C9" s="1" t="s">
@@ -743,23 +776,23 @@
       <c r="E9" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F9" s="3"/>
-      <c r="J9" s="3" t="s">
+      <c r="F9" s="2"/>
+      <c r="J9" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="K9" s="3" t="s">
+      <c r="K9" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="L9" s="3" t="s">
+      <c r="L9" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="M9" s="3"/>
+      <c r="M9" s="2"/>
     </row>
     <row r="12" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="E12" s="2"/>
+      <c r="E12" s="3"/>
       <c r="K12" t="s">
         <v>55</v>
       </c>
@@ -791,78 +824,78 @@
       </c>
     </row>
     <row r="15" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="E15" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="F15" s="3"/>
-      <c r="J15" s="3" t="s">
+      <c r="F15" s="2"/>
+      <c r="J15" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="K15" s="3" t="s">
+      <c r="K15" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="L15" s="3" t="s">
+      <c r="L15" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="M15" s="3"/>
+      <c r="M15" s="2"/>
     </row>
     <row r="16" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D16" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="E16" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="F16" s="3"/>
-      <c r="J16" s="3" t="s">
+      <c r="F16" s="2"/>
+      <c r="J16" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="K16" s="3" t="s">
+      <c r="K16" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="L16" s="3" t="s">
+      <c r="L16" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="M16" s="3"/>
+      <c r="M16" s="2"/>
     </row>
     <row r="17" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D17" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="E17" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F17" s="3"/>
+      <c r="F17" s="2"/>
     </row>
     <row r="18" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="D18" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="E18" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="F18" s="3"/>
+      <c r="F18" s="2"/>
     </row>
     <row r="21" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="D21" s="2" t="s">
+      <c r="D21" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="E21" s="2"/>
+      <c r="E21" s="3"/>
       <c r="K21" t="s">
         <v>44</v>
       </c>
@@ -894,82 +927,82 @@
       </c>
     </row>
     <row r="24" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C24" s="3" t="s">
+      <c r="C24" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="D24" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E24" s="3" t="s">
+      <c r="E24" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="F24" s="3"/>
-      <c r="J24" s="3" t="s">
+      <c r="F24" s="2"/>
+      <c r="J24" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="K24" s="3" t="s">
+      <c r="K24" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="L24" s="3" t="s">
+      <c r="L24" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="M24" s="3"/>
+      <c r="M24" s="2"/>
     </row>
     <row r="25" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C25" s="3" t="s">
+      <c r="C25" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D25" s="3" t="s">
+      <c r="D25" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E25" s="3" t="s">
+      <c r="E25" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="F25" s="3"/>
-      <c r="J25" s="3" t="s">
+      <c r="F25" s="2"/>
+      <c r="J25" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="K25" s="3" t="s">
+      <c r="K25" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="L25" s="3" t="s">
+      <c r="L25" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="M25" s="3"/>
+      <c r="M25" s="2"/>
     </row>
     <row r="26" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C26" s="3" t="s">
+      <c r="C26" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D26" s="3" t="s">
+      <c r="D26" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E26" s="3" t="s">
+      <c r="E26" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F26" s="3"/>
+      <c r="F26" s="2"/>
     </row>
     <row r="27" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C27" s="3" t="s">
+      <c r="C27" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D27" s="3" t="s">
+      <c r="D27" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E27" s="3" t="s">
+      <c r="E27" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="F27" s="3"/>
-      <c r="K27" s="2" t="s">
+      <c r="F27" s="2"/>
+      <c r="K27" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="L27" s="2"/>
+      <c r="L27" s="3"/>
     </row>
     <row r="29" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="D29" s="2" t="s">
+      <c r="D29" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="E29" s="2"/>
+      <c r="E29" s="3"/>
       <c r="J29" s="1" t="s">
         <v>7</v>
       </c>
@@ -984,16 +1017,16 @@
       </c>
     </row>
     <row r="30" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="J30" s="3" t="s">
+      <c r="J30" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="K30" s="3" t="s">
+      <c r="K30" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="L30" s="3" t="s">
+      <c r="L30" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M30" s="3"/>
+      <c r="M30" s="2"/>
     </row>
     <row r="31" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C31" s="1" t="s">
@@ -1008,77 +1041,104 @@
       <c r="F31" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J31" s="3" t="s">
+      <c r="J31" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="K31" s="3" t="s">
+      <c r="K31" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="L31" s="3" t="s">
+      <c r="L31" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="M31" s="3"/>
+      <c r="M31" s="2"/>
     </row>
     <row r="32" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C32" s="3" t="s">
+      <c r="C32" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E32" s="3" t="s">
+      <c r="D32" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E32" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="F32" s="3"/>
-      <c r="J32" s="3" t="s">
+      <c r="F32" s="2"/>
+      <c r="J32" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="K32" s="3" t="s">
+      <c r="K32" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="L32" s="3" t="s">
+      <c r="L32" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="M32" s="3"/>
+      <c r="M32" s="2"/>
     </row>
     <row r="33" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C33" s="3" t="s">
+      <c r="C33" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E33" s="3" t="s">
+      <c r="D33" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E33" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="F33" s="3"/>
-      <c r="J33" s="3" t="s">
+      <c r="F33" s="2"/>
+      <c r="J33" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="K33" s="3" t="s">
+      <c r="K33" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="L33" s="3" t="s">
+      <c r="L33" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M33" s="3"/>
+      <c r="M33" s="2"/>
     </row>
     <row r="34" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="J34" s="3" t="s">
+      <c r="C34" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F34" s="2"/>
+      <c r="J34" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="K34" s="3" t="s">
+      <c r="K34" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="L34" s="3" t="s">
+      <c r="L34" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M34" s="3"/>
+      <c r="M34" s="2"/>
     </row>
     <row r="37" spans="3:13" x14ac:dyDescent="0.25">
       <c r="D37" t="s">
         <v>58</v>
       </c>
+      <c r="K37" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="38" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="J38" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K38" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L38" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M38" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="39" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C39" s="1" t="s">
@@ -1093,54 +1153,82 @@
       <c r="F39" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="J39" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="K39" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="L39" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="M39" s="2"/>
     </row>
     <row r="40" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C40" s="3" t="s">
+      <c r="C40" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D40" s="3" t="s">
+      <c r="D40" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="E40" s="3" t="s">
+      <c r="E40" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="F40" s="3"/>
+      <c r="F40" s="2"/>
+      <c r="J40" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="K40" s="2"/>
+      <c r="L40" s="2"/>
+      <c r="M40" s="2"/>
     </row>
     <row r="41" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C41" s="3" t="s">
+      <c r="C41" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D41" s="3" t="s">
+      <c r="D41" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="E41" s="3" t="s">
+      <c r="E41" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="F41" s="3"/>
+      <c r="F41" s="2"/>
+      <c r="J41" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="K41" s="2"/>
+      <c r="L41" s="2"/>
+      <c r="M41" s="2"/>
     </row>
     <row r="42" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C42" s="3" t="s">
+      <c r="C42" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D42" s="3" t="s">
+      <c r="D42" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="E42" s="3" t="s">
+      <c r="E42" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="F42" s="3"/>
+      <c r="F42" s="2"/>
+      <c r="J42" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="K42" s="2"/>
+      <c r="L42" s="2"/>
+      <c r="M42" s="2"/>
     </row>
     <row r="43" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C43" s="3" t="s">
+      <c r="C43" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D43" s="3" t="s">
+      <c r="D43" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="E43" s="3" t="s">
+      <c r="E43" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F43" s="3"/>
+      <c r="F43" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -1152,5 +1240,6 @@
     <mergeCell ref="K27:L27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/MotaCSDL.xlsx
+++ b/MotaCSDL.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="77">
   <si>
     <t>Username</t>
   </si>
@@ -241,6 +241,15 @@
   </si>
   <si>
     <t>Trạng thái</t>
+  </si>
+  <si>
+    <t>Tên khách hàng</t>
+  </si>
+  <si>
+    <t>nvarchar(30)</t>
+  </si>
+  <si>
+    <t>nvarchar(12)</t>
   </si>
 </sst>
 </file>
@@ -310,11 +319,11 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -621,7 +630,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -631,8 +640,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:M43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="J42" sqref="J42"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="L39" sqref="L39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -646,15 +655,15 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="3"/>
-      <c r="J2" s="3" t="s">
+      <c r="E2" s="5"/>
+      <c r="J2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
     </row>
     <row r="4" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C4" s="1" t="s">
@@ -789,10 +798,10 @@
       <c r="M9" s="2"/>
     </row>
     <row r="12" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="E12" s="3"/>
+      <c r="E12" s="5"/>
       <c r="K12" t="s">
         <v>55</v>
       </c>
@@ -892,10 +901,10 @@
       <c r="F18" s="2"/>
     </row>
     <row r="21" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="D21" s="3" t="s">
+      <c r="D21" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="E21" s="3"/>
+      <c r="E21" s="5"/>
       <c r="K21" t="s">
         <v>44</v>
       </c>
@@ -993,16 +1002,16 @@
         <v>45</v>
       </c>
       <c r="F27" s="2"/>
-      <c r="K27" s="3" t="s">
+      <c r="K27" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="L27" s="3"/>
+      <c r="L27" s="5"/>
     </row>
     <row r="29" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="D29" s="3" t="s">
+      <c r="D29" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="E29" s="3"/>
+      <c r="E29" s="5"/>
       <c r="J29" s="1" t="s">
         <v>7</v>
       </c>
@@ -1097,13 +1106,13 @@
       <c r="M33" s="2"/>
     </row>
     <row r="34" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C34" s="5" t="s">
+      <c r="C34" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="D34" s="5" t="s">
+      <c r="D34" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="E34" s="5" t="s">
+      <c r="E34" s="4" t="s">
         <v>11</v>
       </c>
       <c r="F34" s="2"/>
@@ -1153,13 +1162,13 @@
       <c r="F39" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J39" s="4" t="s">
+      <c r="J39" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="K39" s="4" t="s">
+      <c r="K39" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="L39" s="4" t="s">
+      <c r="L39" s="3" t="s">
         <v>54</v>
       </c>
       <c r="M39" s="2"/>
@@ -1178,8 +1187,12 @@
       <c r="J40" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="K40" s="2"/>
-      <c r="L40" s="2"/>
+      <c r="K40" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="L40" s="3" t="s">
+        <v>75</v>
+      </c>
       <c r="M40" s="2"/>
     </row>
     <row r="41" spans="3:13" x14ac:dyDescent="0.25">
@@ -1196,8 +1209,12 @@
       <c r="J41" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="K41" s="2"/>
-      <c r="L41" s="2"/>
+      <c r="K41" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L41" s="3" t="s">
+        <v>76</v>
+      </c>
       <c r="M41" s="2"/>
     </row>
     <row r="42" spans="3:13" x14ac:dyDescent="0.25">
@@ -1214,8 +1231,12 @@
       <c r="J42" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="K42" s="2"/>
-      <c r="L42" s="2"/>
+      <c r="K42" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="L42" s="3" t="s">
+        <v>45</v>
+      </c>
       <c r="M42" s="2"/>
     </row>
     <row r="43" spans="3:13" x14ac:dyDescent="0.25">

--- a/MotaCSDL.xlsx
+++ b/MotaCSDL.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive\GitHub\Congnghephanmem\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="2" documentId="11_010730A647277932BCCE54317A772104331220CB" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{06C3A407-0248-4798-8C95-B45416CFE92D}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="77">
   <si>
     <t>Username</t>
   </si>
@@ -66,9 +72,6 @@
     <t>Kiểu dữ liệu</t>
   </si>
   <si>
-    <t>id</t>
-  </si>
-  <si>
     <t>Mã hóa đơn</t>
   </si>
   <si>
@@ -250,12 +253,15 @@
   </si>
   <si>
     <t>nvarchar(12)</t>
+  </si>
+  <si>
+    <t>idEmp</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -384,7 +390,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -436,7 +442,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -630,18 +636,18 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C2:M43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="L39" sqref="L39"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -660,7 +666,7 @@
       </c>
       <c r="E2" s="5"/>
       <c r="J2" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K2" s="5"/>
       <c r="L2" s="5"/>
@@ -699,14 +705,14 @@
         <v>4</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F5" s="1"/>
       <c r="J5" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L5" s="2" t="s">
         <v>11</v>
@@ -725,13 +731,13 @@
       </c>
       <c r="F6" s="1"/>
       <c r="J6" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L6" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>22</v>
       </c>
       <c r="M6" s="2"/>
     </row>
@@ -747,10 +753,10 @@
       </c>
       <c r="F7" s="1"/>
       <c r="J7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K7" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>24</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>11</v>
@@ -767,43 +773,43 @@
       </c>
       <c r="F8" s="1"/>
       <c r="J8" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
     </row>
     <row r="9" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F9" s="2"/>
       <c r="J9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K9" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="K9" s="2" t="s">
+      <c r="L9" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="L9" s="2" t="s">
-        <v>28</v>
       </c>
       <c r="M9" s="2"/>
     </row>
     <row r="12" spans="3:13" x14ac:dyDescent="0.25">
       <c r="D12" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E12" s="5"/>
       <c r="K12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="3:13" x14ac:dyDescent="0.25">
@@ -834,79 +840,79 @@
     </row>
     <row r="15" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C15" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D15" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="E15" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F15" s="2"/>
       <c r="J15" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K15" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="K15" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="L15" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="M15" s="2"/>
     </row>
     <row r="16" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C16" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D16" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="E16" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F16" s="2"/>
       <c r="J16" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M16" s="2"/>
     </row>
     <row r="17" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C17" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D17" s="2" t="s">
-        <v>34</v>
-      </c>
       <c r="E17" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F17" s="2"/>
     </row>
     <row r="18" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C18" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D18" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D18" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="E18" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F18" s="2"/>
     </row>
     <row r="21" spans="3:13" x14ac:dyDescent="0.25">
       <c r="D21" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E21" s="5"/>
       <c r="K21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="23" spans="3:13" x14ac:dyDescent="0.25">
@@ -937,79 +943,79 @@
     </row>
     <row r="24" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C24" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F24" s="2"/>
       <c r="J24" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L24" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M24" s="2"/>
     </row>
     <row r="25" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C25" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F25" s="2"/>
       <c r="J25" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L25" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="M25" s="2"/>
     </row>
     <row r="26" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C26" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D26" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D26" s="2" t="s">
-        <v>34</v>
-      </c>
       <c r="E26" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F26" s="2"/>
     </row>
     <row r="27" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C27" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D27" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D27" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="E27" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F27" s="2"/>
       <c r="K27" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L27" s="5"/>
     </row>
     <row r="29" spans="3:13" x14ac:dyDescent="0.25">
       <c r="D29" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E29" s="5"/>
       <c r="J29" s="1" t="s">
@@ -1027,10 +1033,10 @@
     </row>
     <row r="30" spans="3:13" x14ac:dyDescent="0.25">
       <c r="J30" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L30" s="2" t="s">
         <v>11</v>
@@ -1051,54 +1057,54 @@
         <v>12</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L31" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="M31" s="2"/>
     </row>
     <row r="32" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C32" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F32" s="2"/>
       <c r="J32" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L32" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="M32" s="2"/>
     </row>
     <row r="33" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C33" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F33" s="2"/>
       <c r="J33" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L33" s="2" t="s">
         <v>11</v>
@@ -1107,32 +1113,44 @@
     </row>
     <row r="34" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C34" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D34" s="4" t="s">
         <v>72</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>73</v>
       </c>
       <c r="E34" s="4" t="s">
         <v>11</v>
       </c>
       <c r="F34" s="2"/>
       <c r="J34" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K34" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L34" s="2" t="s">
         <v>11</v>
       </c>
       <c r="M34" s="2"/>
     </row>
+    <row r="35" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="J35" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="K35" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="L35" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="M35" s="2"/>
+    </row>
     <row r="37" spans="3:13" x14ac:dyDescent="0.25">
       <c r="D37" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K37" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="38" spans="3:13" x14ac:dyDescent="0.25">
@@ -1163,88 +1181,88 @@
         <v>12</v>
       </c>
       <c r="J39" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K39" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L39" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="M39" s="2"/>
     </row>
     <row r="40" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C40" s="2" t="s">
-        <v>15</v>
+        <v>76</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F40" s="2"/>
       <c r="J40" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K40" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="L40" s="3" t="s">
         <v>74</v>
-      </c>
-      <c r="L40" s="3" t="s">
-        <v>75</v>
       </c>
       <c r="M40" s="2"/>
     </row>
     <row r="41" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C41" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F41" s="2"/>
       <c r="J41" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K41" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L41" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="M41" s="2"/>
     </row>
     <row r="42" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C42" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F42" s="2"/>
       <c r="J42" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K42" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L42" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M42" s="2"/>
     </row>
     <row r="43" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C43" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>11</v>

--- a/MotaCSDL.xlsx
+++ b/MotaCSDL.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive\GitHub\Congnghephanmem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="11_010730A647277932BCCE54317A772104331220CB" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{06C3A407-0248-4798-8C95-B45416CFE92D}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E800539F-F023-4D98-91CB-F13297F5495F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="78">
   <si>
     <t>Username</t>
   </si>
@@ -256,6 +256,9 @@
   </si>
   <si>
     <t>idEmp</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> bool</t>
   </si>
 </sst>
 </file>
@@ -646,8 +649,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C2:M43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="H33" sqref="H33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1119,7 +1122,7 @@
         <v>72</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>11</v>
+        <v>77</v>
       </c>
       <c r="F34" s="2"/>
       <c r="J34" s="2" t="s">

--- a/MotaCSDL.xlsx
+++ b/MotaCSDL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive\GitHub\Congnghephanmem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E800539F-F023-4D98-91CB-F13297F5495F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{629F031D-721D-4607-9B32-D68D118B0023}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -649,8 +649,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C2:M43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/MotaCSDL.xlsx
+++ b/MotaCSDL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive\GitHub\Congnghephanmem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{629F031D-721D-4607-9B32-D68D118B0023}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86E77DCE-7C57-4859-82A7-3166FAEF7A7B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="93">
   <si>
     <t>Username</t>
   </si>
@@ -66,9 +66,6 @@
     <t>Chú thích</t>
   </si>
   <si>
-    <t>Acount</t>
-  </si>
-  <si>
     <t>Kiểu dữ liệu</t>
   </si>
   <si>
@@ -78,18 +75,12 @@
     <t>Bill (Hóa đơn khách hàng)</t>
   </si>
   <si>
-    <t>Time</t>
-  </si>
-  <si>
     <t>Note</t>
   </si>
   <si>
     <t>Ghi chú</t>
   </si>
   <si>
-    <t>Thời gian thanh toán</t>
-  </si>
-  <si>
     <t>Datetime</t>
   </si>
   <si>
@@ -105,9 +96,6 @@
     <t>totalPrice</t>
   </si>
   <si>
-    <t>tổng tiền</t>
-  </si>
-  <si>
     <t>float</t>
   </si>
   <si>
@@ -135,15 +123,9 @@
     <t>tên sản phẩm</t>
   </si>
   <si>
-    <t>Food</t>
-  </si>
-  <si>
     <t>Tên loại</t>
   </si>
   <si>
-    <t>Drinh</t>
-  </si>
-  <si>
     <t>idDrink</t>
   </si>
   <si>
@@ -156,9 +138,6 @@
     <t>Table</t>
   </si>
   <si>
-    <t>Category Drink</t>
-  </si>
-  <si>
     <t>nvarchar(50)</t>
   </si>
   <si>
@@ -189,9 +168,6 @@
     <t>nvarchar(25)</t>
   </si>
   <si>
-    <t>Category Food</t>
-  </si>
-  <si>
     <t xml:space="preserve">Tên Loại nước </t>
   </si>
   <si>
@@ -259,6 +235,77 @@
   </si>
   <si>
     <t xml:space="preserve"> bool</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Mã định danh</t>
+  </si>
+  <si>
+    <t>Acount (Thông tin tài khoản)</t>
+  </si>
+  <si>
+    <t>Food (Đồ ăn)</t>
+  </si>
+  <si>
+    <t>Category Food (Danh mục đồ ăn)</t>
+  </si>
+  <si>
+    <t>Drink (Nước)</t>
+  </si>
+  <si>
+    <t>Category Drink (Danh mục đồ uống)</t>
+  </si>
+  <si>
+    <t>Tổng tiền</t>
+  </si>
+  <si>
+    <t>trạng thái đơn</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>BookDate</t>
+  </si>
+  <si>
+    <t>Ngày đặt bàn</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>BookTimeStart</t>
+  </si>
+  <si>
+    <t>Ngày bắt đầu</t>
+  </si>
+  <si>
+    <t>BookTimeEnd</t>
+  </si>
+  <si>
+    <t>Ngày kết thúc</t>
+  </si>
+  <si>
+    <t>nvarchar(20)</t>
+  </si>
+  <si>
+    <t>Thời gian vào</t>
+  </si>
+  <si>
+    <t>Thời gian ra</t>
+  </si>
+  <si>
+    <t>0: giảm 25%,
+ 1: 50%, 
+2: 75%</t>
+  </si>
+  <si>
+    <t>TimeCheckIn</t>
+  </si>
+  <si>
+    <t>TimeCheckOut</t>
   </si>
 </sst>
 </file>
@@ -282,7 +329,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -305,34 +352,31 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -647,10 +691,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C2:M43"/>
+  <dimension ref="C2:M58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -661,475 +705,491 @@
     <col min="10" max="10" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="19.42578125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="25.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="3:13" x14ac:dyDescent="0.25">
       <c r="D2" s="5" t="s">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="E2" s="5"/>
       <c r="J2" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K2" s="5"/>
       <c r="L2" s="5"/>
     </row>
+    <row r="3" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+    </row>
     <row r="4" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="M4" s="2" t="s">
+      <c r="E4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="5" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C5" s="1" t="s">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>4</v>
+        <v>71</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F5" s="1"/>
+        <v>11</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="J5" s="2" t="s">
-        <v>46</v>
+        <v>7</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="M5" s="2"/>
+        <v>13</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="6" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C6" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="F6" s="1"/>
       <c r="J6" s="2" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="M6" s="2"/>
     </row>
     <row r="7" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C7" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F7" s="1"/>
       <c r="J7" s="2" t="s">
-        <v>22</v>
+        <v>91</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>23</v>
+        <v>88</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="M7" s="2"/>
     </row>
     <row r="8" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C8" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="1"/>
+        <v>2</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="E8" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F8" s="1"/>
       <c r="J8" s="2" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="L8" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="M8" s="2"/>
     </row>
-    <row r="9" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:13" ht="45" x14ac:dyDescent="0.25">
       <c r="C9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="1"/>
+      <c r="J9" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="L9" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="M9" s="8" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="10" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="2"/>
+      <c r="J10" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M10" s="2"/>
+    </row>
+    <row r="11" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="J11" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="L11" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F9" s="2"/>
-      <c r="J9" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="L9" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="M9" s="2"/>
-    </row>
-    <row r="12" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="D12" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E12" s="5"/>
-      <c r="K12" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="14" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C14" s="1" t="s">
+      <c r="M11" s="2"/>
+    </row>
+    <row r="13" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="D13" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="E13" s="5"/>
+      <c r="K13" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="15" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C15" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D15" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="E15" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="F15" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J14" s="1" t="s">
+      <c r="J15" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="K14" s="1" t="s">
+      <c r="K15" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="L14" s="1" t="s">
+      <c r="L15" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="M14" s="1" t="s">
+      <c r="M15" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="15" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C15" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="F15" s="2"/>
-      <c r="J15" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="K15" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="L15" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="M15" s="2"/>
     </row>
     <row r="16" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C16" s="2" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="F16" s="2"/>
       <c r="J16" s="2" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="M16" s="2"/>
     </row>
     <row r="17" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C17" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F17" s="2"/>
+      <c r="J17" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K17" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D17" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F17" s="2"/>
+      <c r="L17" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="M17" s="2"/>
     </row>
     <row r="18" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C18" s="2" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="F18" s="2"/>
     </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="D21" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="E21" s="5"/>
-      <c r="K21" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C23" s="1" t="s">
+    <row r="19" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C19" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F19" s="2"/>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="D22" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E22" s="5"/>
+      <c r="K22" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C24" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="D24" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E23" s="1" t="s">
+      <c r="E24" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F23" s="1" t="s">
+      <c r="F24" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J23" s="1" t="s">
+      <c r="J24" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="K23" s="1" t="s">
+      <c r="K24" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="L23" s="1" t="s">
+      <c r="L24" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="M23" s="1" t="s">
+      <c r="M24" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C24" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="F24" s="2"/>
-      <c r="J24" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="K24" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="L24" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="M24" s="2"/>
     </row>
     <row r="25" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C25" s="2" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>53</v>
+        <v>87</v>
       </c>
       <c r="F25" s="2"/>
       <c r="J25" s="2" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="L25" s="2" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="M25" s="2"/>
     </row>
     <row r="26" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C26" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="E26" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F26" s="2"/>
+      <c r="J26" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K26" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F26" s="2"/>
+      <c r="L26" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="M26" s="2"/>
     </row>
     <row r="27" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C27" s="2" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="F27" s="2"/>
-      <c r="K27" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="L27" s="5"/>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="D29" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="E29" s="5"/>
-      <c r="J29" s="1" t="s">
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C28" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F28" s="2"/>
+      <c r="K28" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="L28" s="5"/>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="D30" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E30" s="5"/>
+      <c r="J30" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="K29" s="1" t="s">
+      <c r="K30" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="L29" s="1" t="s">
+      <c r="L30" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="M29" s="1" t="s">
+      <c r="M30" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="J30" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="K30" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="L30" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="M30" s="2"/>
-    </row>
     <row r="31" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C31" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="J31" s="2" t="s">
         <v>39</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>49</v>
+        <v>14</v>
       </c>
       <c r="L31" s="2" t="s">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="M31" s="2"/>
     </row>
     <row r="32" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C32" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="F32" s="2"/>
+      <c r="C32" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="J32" s="2" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="L32" s="2" t="s">
-        <v>53</v>
+        <v>87</v>
       </c>
       <c r="M32" s="2"/>
     </row>
     <row r="33" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C33" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="F33" s="2"/>
       <c r="J33" s="2" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="L33" s="2" t="s">
-        <v>11</v>
+        <v>87</v>
       </c>
       <c r="M33" s="2"/>
     </row>
     <row r="34" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C34" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="E34" s="4" t="s">
-        <v>77</v>
+      <c r="C34" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>37</v>
       </c>
       <c r="F34" s="2"/>
       <c r="J34" s="2" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="K34" s="2" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="L34" s="2" t="s">
         <v>11</v>
@@ -1137,149 +1197,307 @@
       <c r="M34" s="2"/>
     </row>
     <row r="35" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C35" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F35" s="2"/>
       <c r="J35" s="2" t="s">
-        <v>76</v>
+        <v>41</v>
       </c>
       <c r="K35" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L35" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M35" s="2"/>
+    </row>
+    <row r="36" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="J36" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="K36" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="L36" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="M36" s="2"/>
+    </row>
+    <row r="37" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="J37" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="K37" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="L37" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="M37" s="2"/>
+    </row>
+    <row r="38" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="J38" s="6"/>
+      <c r="K38" s="6"/>
+      <c r="L38" s="6"/>
+      <c r="M38" s="6"/>
+    </row>
+    <row r="39" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="J39" s="6"/>
+      <c r="K39" s="6"/>
+      <c r="L39" s="6"/>
+      <c r="M39" s="6"/>
+    </row>
+    <row r="40" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="J40" s="6"/>
+      <c r="K40" s="6"/>
+      <c r="L40" s="6"/>
+      <c r="M40" s="6"/>
+    </row>
+    <row r="41" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="J41" s="6"/>
+      <c r="K41" s="6"/>
+      <c r="L41" s="6"/>
+      <c r="M41" s="6"/>
+    </row>
+    <row r="42" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C42" s="3"/>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="2"/>
+    </row>
+    <row r="43" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C43" s="9"/>
+      <c r="D43" s="9"/>
+      <c r="E43" s="9"/>
+      <c r="F43" s="6"/>
+    </row>
+    <row r="44" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C44" s="9"/>
+      <c r="D44" s="9"/>
+      <c r="E44" s="9"/>
+      <c r="F44" s="6"/>
+    </row>
+    <row r="45" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C45" s="9"/>
+      <c r="D45" s="9"/>
+      <c r="E45" s="9"/>
+      <c r="F45" s="6"/>
+    </row>
+    <row r="46" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C46" s="9"/>
+      <c r="D46" s="9"/>
+      <c r="E46" s="9"/>
+      <c r="F46" s="6"/>
+    </row>
+    <row r="47" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C47" s="9"/>
+      <c r="D47" s="9"/>
+      <c r="E47" s="9"/>
+      <c r="F47" s="6"/>
+    </row>
+    <row r="48" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C48" s="9"/>
+      <c r="D48" s="9"/>
+      <c r="E48" s="9"/>
+      <c r="F48" s="6"/>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="D49" t="s">
+        <v>49</v>
+      </c>
+      <c r="K49" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="J50" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K50" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L50" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M50" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C51" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J51" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K51" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="L51" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="M51" s="2"/>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C52" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F52" s="2"/>
+      <c r="J52" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="L35" s="2" t="s">
+      <c r="K52" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="L52" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="M52" s="2"/>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C53" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D53" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="M35" s="2"/>
-    </row>
-    <row r="37" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="D37" t="s">
-        <v>57</v>
-      </c>
-      <c r="K37" t="s">
+      <c r="E53" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F53" s="2"/>
+      <c r="J53" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="K53" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L53" s="2" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="38" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="J38" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K38" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="L38" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="M38" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="39" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C39" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J39" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="K39" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="L39" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="M39" s="2"/>
-    </row>
-    <row r="40" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C40" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="F40" s="2"/>
-      <c r="J40" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="K40" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="L40" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="M40" s="2"/>
-    </row>
-    <row r="41" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C41" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F41" s="2"/>
-      <c r="J41" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="K41" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="L41" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="M41" s="2"/>
-    </row>
-    <row r="42" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C42" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D42" s="2" t="s">
+      <c r="M53" s="2"/>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C54" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F54" s="2"/>
+      <c r="J54" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="E42" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="F42" s="2"/>
-      <c r="J42" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="K42" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="L42" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="M42" s="2"/>
-    </row>
-    <row r="43" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C43" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E43" s="2" t="s">
+      <c r="K54" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L54" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="M54" s="2"/>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C55" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E55" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F43" s="2"/>
+      <c r="F55" s="2"/>
+      <c r="J55" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="K55" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="L55" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M55" s="2"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="J56" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="K56" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="L56" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="M56" s="2"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="J57" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="K57" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="L57" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="M57" s="2"/>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="J58" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="K58" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="L58" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="M58" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="J2:L2"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="K28:L28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
